--- a/backend/pages/excel/excel-certificate-001.xlsx
+++ b/backend/pages/excel/excel-certificate-001.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Morn\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\app-certificate\backend\pages\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDB57BB-2599-4B0F-B544-F93EE3162461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD85216-00C4-4B65-A5DD-E04FDA97440D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15150" xr2:uid="{30B71CBD-2B3C-4293-B258-3ACE6F79B6E0}"/>
+    <workbookView xWindow="7200" yWindow="3645" windowWidth="21600" windowHeight="11295" xr2:uid="{30B71CBD-2B3C-4293-B258-3ACE6F79B6E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,13 +86,13 @@
     <t>ระดับมัธยมศึกษาตอนปลาย</t>
   </si>
   <si>
-    <t>รางวัลชนะเลิศ</t>
-  </si>
-  <si>
     <t>นิทรรศการวันวิทยาสาสตร์ Science today is Technology Tomorrow ประจำปี 2566</t>
   </si>
   <si>
     <t>ระหว่างวันที่ 4 - 5 สิงหาคม พ.ศ.2566</t>
+  </si>
+  <si>
+    <t>ได้รับ รางวัลชนะเลิศ</t>
   </si>
 </sst>
 </file>
@@ -158,11 +158,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB408144-AAE4-4B57-85F2-F0238B18FA14}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,13 +554,13 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/backend/pages/excel/excel-certificate-001.xlsx
+++ b/backend/pages/excel/excel-certificate-001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\app-certificate\backend\pages\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD85216-00C4-4B65-A5DD-E04FDA97440D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C724A443-B343-4810-9EB3-A52FFC3C3E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3645" windowWidth="21600" windowHeight="11295" xr2:uid="{30B71CBD-2B3C-4293-B258-3ACE6F79B6E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{30B71CBD-2B3C-4293-B258-3ACE6F79B6E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,13 +86,13 @@
     <t>ระดับมัธยมศึกษาตอนปลาย</t>
   </si>
   <si>
-    <t>นิทรรศการวันวิทยาสาสตร์ Science today is Technology Tomorrow ประจำปี 2566</t>
-  </si>
-  <si>
     <t>ระหว่างวันที่ 4 - 5 สิงหาคม พ.ศ.2566</t>
   </si>
   <si>
-    <t>ได้รับ รางวัลชนะเลิศ</t>
+    <t>ได้รับรางวัลชนะเลิศ</t>
+  </si>
+  <si>
+    <t>นิทรรศการวันวิทยาศาสตร์ "Science Today is Technology Tomorrow"</t>
   </si>
 </sst>
 </file>
@@ -482,7 +482,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +494,7 @@
     <col min="5" max="5" width="57.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="71.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="32.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -554,13 +554,13 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/backend/pages/excel/excel-certificate-001.xlsx
+++ b/backend/pages/excel/excel-certificate-001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\app-certificate\backend\pages\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C724A443-B343-4810-9EB3-A52FFC3C3E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA4AA40-4486-4578-9D1A-DA8F88884864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{30B71CBD-2B3C-4293-B258-3ACE6F79B6E0}"/>
   </bookViews>
@@ -86,13 +86,13 @@
     <t>ระดับมัธยมศึกษาตอนปลาย</t>
   </si>
   <si>
-    <t>ระหว่างวันที่ 4 - 5 สิงหาคม พ.ศ.2566</t>
-  </si>
-  <si>
     <t>ได้รับรางวัลชนะเลิศ</t>
   </si>
   <si>
     <t>นิทรรศการวันวิทยาศาสตร์ "Science Today is Technology Tomorrow"</t>
+  </si>
+  <si>
+    <t>ระหว่างวันที่ 4 - 5 สิงหาคม พ.ศ. 2566</t>
   </si>
 </sst>
 </file>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB408144-AAE4-4B57-85F2-F0238B18FA14}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,13 +554,13 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
